--- a/Assets/Resource/ExcelData/status.xlsx
+++ b/Assets/Resource/ExcelData/status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C026516-1A0C-4583-A2EF-B708FC7B68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353BCEB-8743-4595-B14D-D9705733425A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24336" yWindow="5568" windowWidth="17136" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="4464" yWindow="3624" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -89,12 +89,6 @@
     <t>최대 스택 개수</t>
   </si>
   <si>
-    <t>ui_show</t>
-  </si>
-  <si>
-    <t>UI 표시 여부</t>
-  </si>
-  <si>
     <t>function_type</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   <si>
     <t>stack_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_reset_able</t>
+  </si>
+  <si>
+    <t>초기화 여부 (TRUE = 초기화 / FALSE = 안함)</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -580,19 +580,19 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
@@ -612,19 +612,19 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>2</v>
@@ -667,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -699,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>

--- a/Assets/Resource/ExcelData/status.xlsx
+++ b/Assets/Resource/ExcelData/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353BCEB-8743-4595-B14D-D9705733425A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5521DCE7-38C7-49DC-9648-C6F34A7AC62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="3624" windowWidth="37020" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="6000" yWindow="4464" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>int</t>
   </si>
@@ -110,9 +110,6 @@
     <t>체력</t>
   </si>
   <si>
-    <t>체력이다. 모두 소모되면 사망한다.</t>
-  </si>
-  <si>
     <t>icon_max_hp</t>
   </si>
   <si>
@@ -133,6 +130,106 @@
   </si>
   <si>
     <t>초기화 여부 (TRUE = 초기화 / FALSE = 안함)</t>
+  </si>
+  <si>
+    <t>function_value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 관련값2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_penetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이다. 0이 되면 사망한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 방어력을 무시할 수 있는 정도이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 공격을 감쇄할 수 있는 정도이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 공격을 피할 수 있는 정도이다. 회피에 성공하면 대미지를 받지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 회피했을 때, 공격을 적중시킬 수 있는 정도이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 대미지를 줄 수 있는 정도이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_observation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관찰력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예리한 눈빛을 갖습니다. 숨겨진 물건을 찾거나, 적을 공격할 때 힘을 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -552,18 +649,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.3984375" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="40" style="3" customWidth="1"/>
+    <col min="6" max="12" width="12" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -580,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>14</v>
@@ -594,8 +691,14 @@
       <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -612,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -626,8 +729,14 @@
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,8 +767,14 @@
       <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -673,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -685,13 +800,17 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -699,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -718,80 +837,196 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -802,8 +1037,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -814,8 +1051,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -826,8 +1065,10 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -838,8 +1079,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -850,6 +1093,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -862,6 +1107,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -874,6 +1121,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -886,6 +1135,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>

--- a/Assets/Resource/ExcelData/status.xlsx
+++ b/Assets/Resource/ExcelData/status.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5521DCE7-38C7-49DC-9648-C6F34A7AC62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930D427-2697-4712-B127-34062D7CEF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="4464" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="16044" yWindow="7944" windowWidth="22368" windowHeight="11664" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ch1" sheetId="1" r:id="rId1"/>
+    <sheet name="status" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>int</t>
   </si>
@@ -230,6 +230,17 @@
   <si>
     <t>1, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 표시 구분자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_collection_check</t>
   </si>
 </sst>
 </file>
@@ -649,18 +660,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="12" style="3" customWidth="1"/>
     <col min="5" max="5" width="40" style="3" customWidth="1"/>
-    <col min="6" max="12" width="12" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="3"/>
+    <col min="6" max="13" width="12" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,8 +708,11 @@
       <c r="L1" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="M1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -735,8 +749,11 @@
       <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -773,8 +790,11 @@
       <c r="L3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -809,8 +829,11 @@
         <v>1</v>
       </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -839,8 +862,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -869,8 +895,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -899,8 +928,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -929,8 +961,11 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -959,8 +994,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -989,8 +1027,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>101</v>
       </c>
@@ -1025,8 +1066,11 @@
       <c r="L11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1039,8 +1083,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1053,8 +1098,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1067,8 +1113,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1081,8 +1128,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1095,6 +1143,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1109,6 +1158,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1123,6 +1173,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1137,6 +1188,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>

--- a/Assets/Resource/ExcelData/status.xlsx
+++ b/Assets/Resource/ExcelData/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930D427-2697-4712-B127-34062D7CEF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D57FCE-4AD1-49CD-BE6F-E3628047518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16044" yWindow="7944" windowWidth="22368" windowHeight="11664" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="status" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>int</t>
   </si>
@@ -241,6 +241,17 @@
   </si>
   <si>
     <t>is_collection_check</t>
+  </si>
+  <si>
+    <t>default_status</t>
+  </si>
+  <si>
+    <t>기본 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -660,18 +671,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="12" style="3" customWidth="1"/>
     <col min="5" max="5" width="40" style="3" customWidth="1"/>
-    <col min="6" max="13" width="12" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="3"/>
+    <col min="6" max="14" width="12" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -711,8 +722,11 @@
       <c r="M1" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="N1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -752,8 +766,11 @@
       <c r="M2" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,8 +810,11 @@
       <c r="M3" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -832,8 +852,11 @@
       <c r="M4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -865,8 +888,11 @@
       <c r="M5" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -898,8 +924,11 @@
       <c r="M6" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -931,8 +960,11 @@
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -964,8 +996,11 @@
       <c r="M8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -997,8 +1032,11 @@
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1030,8 +1068,11 @@
       <c r="M10" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>101</v>
       </c>
@@ -1069,8 +1110,11 @@
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1084,8 +1128,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1099,8 +1144,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1114,8 +1160,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1129,8 +1176,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1144,6 +1192,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1159,6 +1208,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1174,6 +1224,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1189,6 +1240,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
